--- a/Zadanie4.xlsx
+++ b/Zadanie4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E61627-CE80-4612-90E8-A376845F1F70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E168B636-2A08-47C2-A743-7AE550A58C1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6458,6 +6458,2227 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>Úspešnosť</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK" baseline="0"/>
+              <a:t> trénovania</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hárok1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hárok1!$A$255:$A$393</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="139"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hárok1!$B$255:$B$393</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="139"/>
+                <c:pt idx="0">
+                  <c:v>0.1188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53139999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6573</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.71319999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.80410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83209999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86709999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.87409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.89510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E96-44DC-8404-4F400680731A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hárok1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hárok1!$A$255:$A$393</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="139"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hárok1!$C$255:$C$393</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="139"/>
+                <c:pt idx="0">
+                  <c:v>5.3330000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17333000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14666000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17333000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17333000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21332999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21332999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26666000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26666000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26666000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26666000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26666000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26666000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.26666000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.26666000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.29332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.29332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.29332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.34666000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.34666000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.34666000000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.34666000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.34666000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.30665999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.33333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E96-44DC-8404-4F400680731A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="223596319"/>
+        <c:axId val="235071231"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="223596319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="130"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Epochy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="235071231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="235071231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Úspešnosť</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="223596319"/>
+        <c:crossesAt val="2"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6579,6 +8800,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8682,6 +10943,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8863,6 +11640,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graf 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83C9743-5060-4EB6-8A14-7CFA6D31A0DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9134,10 +11949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C253"/>
+  <dimension ref="A1:C536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="O245" sqref="O245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11748,6 +14563,2240 @@
         <v>6915</v>
       </c>
     </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>2</v>
+      </c>
+      <c r="B255">
+        <v>0.1188</v>
+      </c>
+      <c r="C255">
+        <v>5.3330000000000002E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>3</v>
+      </c>
+      <c r="B256">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="C256">
+        <v>0.17333000000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>4</v>
+      </c>
+      <c r="B257">
+        <v>0.3286</v>
+      </c>
+      <c r="C257">
+        <v>0.14666000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>5</v>
+      </c>
+      <c r="B258">
+        <v>0.33560000000000001</v>
+      </c>
+      <c r="C258">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>6</v>
+      </c>
+      <c r="B259">
+        <v>0.3216</v>
+      </c>
+      <c r="C259">
+        <v>0.17333000000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>7</v>
+      </c>
+      <c r="B260">
+        <v>0.3216</v>
+      </c>
+      <c r="C260">
+        <v>0.17333000000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>8</v>
+      </c>
+      <c r="B261">
+        <v>0.35659999999999997</v>
+      </c>
+      <c r="C261">
+        <v>0.18665999999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>9</v>
+      </c>
+      <c r="B262">
+        <v>0.44750000000000001</v>
+      </c>
+      <c r="C262">
+        <v>0.21332999999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>10</v>
+      </c>
+      <c r="B263">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="C263">
+        <v>0.21332999999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>11</v>
+      </c>
+      <c r="B264">
+        <v>0.56640000000000001</v>
+      </c>
+      <c r="C264">
+        <v>0.22666</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>12</v>
+      </c>
+      <c r="B265">
+        <v>0.60129999999999995</v>
+      </c>
+      <c r="C265">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>13</v>
+      </c>
+      <c r="B266">
+        <v>0.62229999999999996</v>
+      </c>
+      <c r="C266">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>14</v>
+      </c>
+      <c r="B267">
+        <v>0.62929999999999997</v>
+      </c>
+      <c r="C267">
+        <v>0.26666000000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>15</v>
+      </c>
+      <c r="B268">
+        <v>0.6573</v>
+      </c>
+      <c r="C268">
+        <v>0.26666000000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>16</v>
+      </c>
+      <c r="B269">
+        <v>0.67830000000000001</v>
+      </c>
+      <c r="C269">
+        <v>0.26666000000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>17</v>
+      </c>
+      <c r="B270">
+        <v>0.71319999999999995</v>
+      </c>
+      <c r="C270">
+        <v>0.26666000000000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>18</v>
+      </c>
+      <c r="B271">
+        <v>0.75519999999999998</v>
+      </c>
+      <c r="C271">
+        <v>0.26666000000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>19</v>
+      </c>
+      <c r="B272">
+        <v>0.80410000000000004</v>
+      </c>
+      <c r="C272">
+        <v>0.25333</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>20</v>
+      </c>
+      <c r="B273">
+        <v>0.83209999999999995</v>
+      </c>
+      <c r="C273">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>21</v>
+      </c>
+      <c r="B274">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="C274">
+        <v>0.26666000000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>22</v>
+      </c>
+      <c r="B275">
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="C275">
+        <v>0.26666000000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>23</v>
+      </c>
+      <c r="B276">
+        <v>0.87409999999999999</v>
+      </c>
+      <c r="C276">
+        <v>0.26666000000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>24</v>
+      </c>
+      <c r="B277">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="C277">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>25</v>
+      </c>
+      <c r="B278">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="C278">
+        <v>0.29332999999999998</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>26</v>
+      </c>
+      <c r="B279">
+        <v>0.93</v>
+      </c>
+      <c r="C279">
+        <v>0.29332999999999998</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>27</v>
+      </c>
+      <c r="B280">
+        <v>0.93</v>
+      </c>
+      <c r="C280">
+        <v>0.29332999999999998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>28</v>
+      </c>
+      <c r="B281">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="C281">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>29</v>
+      </c>
+      <c r="B282">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="C282">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>30</v>
+      </c>
+      <c r="B283">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="C283">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>31</v>
+      </c>
+      <c r="B284">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C284">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>32</v>
+      </c>
+      <c r="B285">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C285">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>33</v>
+      </c>
+      <c r="B286">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C286">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>34</v>
+      </c>
+      <c r="B287">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C287">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>35</v>
+      </c>
+      <c r="B288">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C288">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>36</v>
+      </c>
+      <c r="B289">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="C289">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>37</v>
+      </c>
+      <c r="B290">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="C290">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>38</v>
+      </c>
+      <c r="B291">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="C291">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>39</v>
+      </c>
+      <c r="B292">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="C292">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>40</v>
+      </c>
+      <c r="B293">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="C293">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>41</v>
+      </c>
+      <c r="B294">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="C294">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>42</v>
+      </c>
+      <c r="B295">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="C295">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>43</v>
+      </c>
+      <c r="B296">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C296">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>44</v>
+      </c>
+      <c r="B297">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C297">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>45</v>
+      </c>
+      <c r="B298">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C298">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>46</v>
+      </c>
+      <c r="B299">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C299">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>47</v>
+      </c>
+      <c r="B300">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C300">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>48</v>
+      </c>
+      <c r="B301">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C301">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>49</v>
+      </c>
+      <c r="B302">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C302">
+        <v>0.34666000000000002</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>50</v>
+      </c>
+      <c r="B303">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C303">
+        <v>0.34666000000000002</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>51</v>
+      </c>
+      <c r="B304">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C304">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>52</v>
+      </c>
+      <c r="B305">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C305">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>53</v>
+      </c>
+      <c r="B306">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C306">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>54</v>
+      </c>
+      <c r="B307">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C307">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>55</v>
+      </c>
+      <c r="B308">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C308">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>56</v>
+      </c>
+      <c r="B309">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C309">
+        <v>0.34666000000000002</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>57</v>
+      </c>
+      <c r="B310">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C310">
+        <v>0.34666000000000002</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>58</v>
+      </c>
+      <c r="B311">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C311">
+        <v>0.34666000000000002</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>59</v>
+      </c>
+      <c r="B312">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C312">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>60</v>
+      </c>
+      <c r="B313">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C313">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>61</v>
+      </c>
+      <c r="B314">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C314">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>62</v>
+      </c>
+      <c r="B315">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C315">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>63</v>
+      </c>
+      <c r="B316">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C316">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>64</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>65</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>66</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>67</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>68</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>69</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>70</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>71</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>72</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>73</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>74</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>75</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>76</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>77</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>78</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>79</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>80</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>81</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>82</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>83</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>84</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="C337">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>85</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>86</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="C339">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>87</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>0.30665999999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>88</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>89</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>90</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>91</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>92</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="C345">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>93</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>94</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>95</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>96</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>97</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>98</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>99</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>100</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>101</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>102</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="C355">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>103</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>104</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>105</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>106</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>107</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>108</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+      <c r="C361">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>109</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>110</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="C363">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>111</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>112</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>113</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>114</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>115</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>116</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>117</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>118</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+      <c r="C371">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>119</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>120</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="C373">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>121</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>122</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+      <c r="C375">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>123</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+      <c r="C376">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>124</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>125</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>126</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+      <c r="C379">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>127</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>128</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>129</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>130</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>131</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>132</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+      <c r="C385">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>133</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>134</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+      <c r="C387">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>135</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>136</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="C389">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>137</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="C390">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>138</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+      <c r="C391">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>139</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>140</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+      <c r="C393">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
